--- a/docs/StructureDefinition-VAAllergyIntoleranceEntryInError.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntoleranceEntryInError.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="301">
   <si>
     <t>Path</t>
   </si>
@@ -323,253 +323,250 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>DATE/TIME ENTERED IN ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date Entered in Error</t>
+  </si>
+  <si>
+    <t>The date/time the allergy/adverse reaction was entered in error.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @DATE/TIME ENTERED IN ERROR 120.8-23</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Act.code</t>
+  </si>
+  <si>
+    <t>Provenance.activity.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>DATE/TIME ENTERED IN ERROR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date Entered in Error</t>
-  </si>
-  <si>
-    <t>The date/time the allergy/adverse reaction was entered in error.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @DATE/TIME ENTERED IN ERROR 120.8-23</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.activity</t>
-  </si>
-  <si>
-    <t>Activity that occurred</t>
-  </si>
-  <si>
-    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
-  </si>
-  <si>
-    <t>The activity that took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
-  </si>
-  <si>
-    <t>Act.code</t>
-  </si>
-  <si>
-    <t>Provenance.activity.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2075,7 +2072,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2094,15 +2091,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2139,14 +2138,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2167,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2185,7 +2186,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2204,16 +2205,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2263,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2295,7 +2296,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2318,16 +2319,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2377,7 +2378,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2395,21 +2396,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2432,16 +2433,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2491,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2509,13 +2510,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2523,14 +2524,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2548,16 +2549,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2607,7 +2608,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2622,24 +2623,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2665,13 +2666,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2721,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2739,7 +2740,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2748,12 +2749,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2776,13 +2777,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2833,7 +2834,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2851,21 +2852,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2888,13 +2889,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2924,10 +2925,10 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -2945,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2963,21 +2964,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3000,13 +3001,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3036,60 +3037,60 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AL17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3112,13 +3113,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3169,7 +3170,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3187,7 +3188,7 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
@@ -3201,11 +3202,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3224,16 +3225,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3271,19 +3272,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3301,7 +3302,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3315,7 +3316,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3341,16 +3342,16 @@
         <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3399,25 +3400,25 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3431,7 +3432,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3454,16 +3455,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3513,25 +3514,25 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3545,7 +3546,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3571,81 +3572,81 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3659,7 +3660,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3682,17 +3683,17 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3741,25 +3742,25 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3773,7 +3774,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3796,19 +3797,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3857,25 +3858,25 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3889,7 +3890,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3912,19 +3913,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -3973,7 +3974,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -3985,27 +3986,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4028,13 +4029,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4085,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4103,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4117,11 +4118,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4140,16 +4141,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4199,7 +4200,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4217,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4231,11 +4232,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4254,16 +4255,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4313,7 +4314,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4368,16 +4369,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4406,11 +4407,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4445,21 +4446,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4482,13 +4483,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4527,41 +4528,41 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4569,16 +4570,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>53</v>
@@ -4596,13 +4597,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4653,7 +4654,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4668,16 +4669,16 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4685,7 +4686,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4708,13 +4709,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4765,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4783,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4797,7 +4798,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4820,13 +4821,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4853,52 +4854,52 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -4909,7 +4910,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4932,16 +4933,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4991,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5003,27 +5004,27 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5046,13 +5047,13 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5103,7 +5104,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5121,7 +5122,7 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5135,11 +5136,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5158,16 +5159,16 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5217,7 +5218,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5235,7 +5236,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5249,11 +5250,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5272,16 +5273,16 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5331,7 +5332,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5363,7 +5364,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5389,10 +5390,10 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5419,63 +5420,63 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5498,16 +5499,16 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5557,7 +5558,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -5575,21 +5576,21 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5615,13 +5616,13 @@
         <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5671,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5689,7 +5690,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5703,7 +5704,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5726,13 +5727,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5783,7 +5784,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5801,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAAllergyIntoleranceEntryInError.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntoleranceEntryInError.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="302">
   <si>
     <t>Path</t>
   </si>
@@ -587,6 +587,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-DataOperation</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -623,7 +626,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>nullified</t>
+    <t>NULLIFY</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -3314,7 +3317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>178</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -3358,7 +3361,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>44</v>
@@ -3400,7 +3403,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3418,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3432,7 +3435,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3458,13 +3461,13 @@
         <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3514,7 +3517,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3532,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3546,7 +3549,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3572,21 +3575,21 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -3628,7 +3631,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3646,7 +3649,7 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3660,7 +3663,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3686,14 +3689,14 @@
         <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3742,7 +3745,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3760,7 +3763,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3774,7 +3777,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3797,19 +3800,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3858,7 +3861,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3876,7 +3879,7 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3890,7 +3893,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3913,19 +3916,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -3974,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -3986,27 +3989,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4118,7 +4121,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4232,11 +4235,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4261,7 +4264,7 @@
         <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>102</v>
@@ -4314,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4369,16 +4372,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4407,10 +4410,10 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4428,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4446,21 +4449,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4483,13 +4486,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4528,17 +4531,17 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4556,13 +4559,13 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4570,16 +4573,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>53</v>
@@ -4597,13 +4600,13 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4654,7 +4657,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>53</v>
@@ -4669,16 +4672,16 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4686,7 +4689,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4709,13 +4712,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4766,7 +4769,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4784,7 +4787,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4798,7 +4801,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4821,13 +4824,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4854,13 +4857,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -4878,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4896,10 +4899,10 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -4910,7 +4913,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4933,16 +4936,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4992,7 +4995,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5004,27 +5007,27 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5136,7 +5139,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5250,11 +5253,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5279,7 +5282,7 @@
         <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>102</v>
@@ -5332,7 +5335,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5364,7 +5367,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5390,10 +5393,10 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5420,13 +5423,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5444,7 +5447,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5462,21 +5465,21 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5499,16 +5502,16 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5558,7 +5561,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -5576,10 +5579,10 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -5590,7 +5593,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5616,13 +5619,13 @@
         <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5672,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5690,7 +5693,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5704,7 +5707,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5727,13 +5730,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5784,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5802,7 +5805,7 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
